--- a/soporte.xlsx
+++ b/soporte.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,375 +427,99 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>GLOBALRENT S.A.</v>
+        <v>ALBERTO BORBOR</v>
       </c>
       <c r="B2" t="str">
-        <v>Estephania</v>
+        <v>Cinthya</v>
       </c>
       <c r="C2" t="str">
         <v>SOPORTE</v>
       </c>
       <c r="D2" t="str">
-        <v xml:space="preserve">Apertura de caja para eliminación de pago </v>
+        <v>Capacitacion</v>
       </c>
       <c r="E2" t="str">
-        <v>solucionado</v>
+        <v>Capacitacion</v>
       </c>
       <c r="F2" t="str">
-        <v>2022-11-11 02:26:15</v>
+        <v>2022-11-15 23:31:00</v>
       </c>
       <c r="G2" t="str">
-        <v>Matilde Silvers</v>
+        <v>Lydia Alvarez</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>GLOBALRENT S.A.</v>
+        <v>ALBERTO BORBOR</v>
       </c>
       <c r="B3" t="str">
-        <v>Amy</v>
+        <v>Cinthya</v>
       </c>
       <c r="C3" t="str">
         <v>SOPORTE</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve">ITEM 04667 DE LA BODEGA 50 NO PUEDE TRANFERIR </v>
+        <v>No le aparece el pdf de la nota de credito 19</v>
       </c>
       <c r="E3" t="str">
-        <v>DESDE BASE AL ITEM 05512 SE PROCEDIO A COLOCARLE EL NUMERO DE LOTE Y LA FECHA DE VENCIMENTO Y ELABORACION, ASI MISMO EN ADMITEMBODLOTE SE LE PROCEDIO A ASIGAR EL STOCK QUE SE ENCONTRO ADMITEMBOD</v>
+        <v>Se reviso y la nota de credito estaba autorizada se le inidco donde puede generar el pdf en la opcion de reconstruit ride</v>
       </c>
       <c r="F3" t="str">
-        <v>2022-11-17 17:02:55</v>
+        <v>2022-12-06 18:13:59</v>
       </c>
       <c r="G3" t="str">
-        <v>Matilde Silvers</v>
+        <v>Lydia Alvarez</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>GLOBALRENT S.A.</v>
+        <v>ALBERTO BORBOR</v>
       </c>
       <c r="B4" t="str">
-        <v>Juliana</v>
+        <v>Cinthya</v>
       </c>
       <c r="C4" t="str">
         <v>SOPORTE</v>
       </c>
       <c r="D4" t="str">
-        <v>Problema en facturación aparece guía pero no factura (no fac 24614)</v>
+        <v>GENERAR PDF DE FACTURAS 2800 Y 2474</v>
       </c>
       <c r="E4" t="str">
-        <v>inconveniente resuelto</v>
+        <v xml:space="preserve">DESDE APOLO EN LA OPCION DE RECOSTRUCCION DE RIDES SE GENERO EL PDF DE LAS FACTRUAS </v>
       </c>
       <c r="F4" t="str">
-        <v>2022-12-16 11:10:48</v>
+        <v>2022-12-28 14:19:05</v>
       </c>
       <c r="G4" t="str">
-        <v>Pedro Geovanny Gutierrez Arreaga</v>
+        <v>Matilde Silvers</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>GLOBALRENT S.A.</v>
+        <v>ALBERTO BORBOR</v>
       </c>
       <c r="B5" t="str">
-        <v>Amy</v>
+        <v>Cinthya</v>
       </c>
       <c r="C5" t="str">
         <v>SOPORTE</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve">Item 07354 no tiene stock en lote </v>
+        <v>Solicita pdf de factrua 6300</v>
       </c>
       <c r="E5" t="str">
-        <v>se reviso por base y el producto si presentaba stock en bodega pero no en lote, se modufico en admitembodlote el stock por el stock que aparecia en admitembod de la bodega 50</v>
+        <v xml:space="preserve">En apolo en la opción reconstrucción de Ride generamos el pdf de la factura </v>
       </c>
       <c r="F5" t="str">
-        <v>2022-12-22 17:27:15</v>
+        <v>2023-01-06 14:54:40</v>
       </c>
       <c r="G5" t="str">
         <v>Matilde Silvers</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Estephania</v>
-      </c>
-      <c r="C6" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D6" t="str">
-        <v xml:space="preserve">Solucionar  problema de factura eliminada que no le aparecía en el sistema, numero de factura 24766 </v>
-      </c>
-      <c r="E6" t="str">
-        <v xml:space="preserve">Se reviso por base de datos la factura </v>
-      </c>
-      <c r="F6" t="str">
-        <v>2023-01-05 16:15:12</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Mariana</v>
-      </c>
-      <c r="C7" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D7" t="str">
-        <v xml:space="preserve">Ingresar factura pero con el mes pasado </v>
-      </c>
-      <c r="E7" t="str">
-        <v xml:space="preserve">Se registro factura con el mes de requerimiento </v>
-      </c>
-      <c r="F7" t="str">
-        <v>2023-01-06 00:00:00</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Mariana</v>
-      </c>
-      <c r="C8" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D8" t="str">
-        <v>ingresar una factura pero con el mes pasado</v>
-      </c>
-      <c r="E8" t="str">
-        <v xml:space="preserve">Se registro factura con el mes de requerimiento </v>
-      </c>
-      <c r="F8" t="str">
-        <v>2023-01-06 00:00:00</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Estephania</v>
-      </c>
-      <c r="C9" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D9" t="str">
-        <v xml:space="preserve">Abrir Caja para anular un pago </v>
-      </c>
-      <c r="E9" t="str">
-        <v xml:space="preserve">Se abrió Caja para anular el pago </v>
-      </c>
-      <c r="F9" t="str">
-        <v>2023-01-10 00:00:00</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Mariana</v>
-      </c>
-      <c r="C10" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D10" t="str">
-        <v xml:space="preserve">Le sale que el item que ella creo no existe </v>
-      </c>
-      <c r="E10" t="str">
-        <v xml:space="preserve">Se corrigieron los items que le salia error </v>
-      </c>
-      <c r="F10" t="str">
-        <v>2023-01-26 17:30:35</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Mariana</v>
-      </c>
-      <c r="C11" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D11" t="str">
-        <v xml:space="preserve">Le sale error en los items 14412, 14415, 14413 que ella creo </v>
-      </c>
-      <c r="E11" t="str">
-        <v xml:space="preserve">Se le corrigieron los items que le salia error </v>
-      </c>
-      <c r="F11" t="str">
-        <v>2023-01-27 09:32:00</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Mariana</v>
-      </c>
-      <c r="C12" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D12" t="str">
-        <v xml:space="preserve">Le sale error con el item 14369 </v>
-      </c>
-      <c r="E12" t="str">
-        <v xml:space="preserve">Se corrigio el error del item 14369 por medio del sistema </v>
-      </c>
-      <c r="F12" t="str">
-        <v>2023-01-31 09:44:16</v>
-      </c>
-      <c r="G12" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B13" t="str">
-        <v xml:space="preserve">Karina </v>
-      </c>
-      <c r="C13" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D13" t="str">
-        <v xml:space="preserve">No se le procesaba la factura 25076 en el Apolo </v>
-      </c>
-      <c r="E13" t="str">
-        <v xml:space="preserve">Se actualizo el sistema central y se procedio a procesar factura </v>
-      </c>
-      <c r="F13" t="str">
-        <v>2023-02-01 10:55:10</v>
-      </c>
-      <c r="G13" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B14" t="str">
-        <v xml:space="preserve">Karina </v>
-      </c>
-      <c r="C14" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D14" t="str">
-        <v xml:space="preserve">No le aparece la guia de remision </v>
-      </c>
-      <c r="E14" t="str">
-        <v>Se le reconstruyo RIDES  y se mando a ejecutar y procesar la guia de Remision 24877</v>
-      </c>
-      <c r="F14" t="str">
-        <v>2023-02-01 16:32:33</v>
-      </c>
-      <c r="G14" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B15" t="str">
-        <v xml:space="preserve">Karina </v>
-      </c>
-      <c r="C15" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D15" t="str">
-        <v>NO LE APARECE LA FACTURA NUMERO 25088</v>
-      </c>
-      <c r="E15" t="str">
-        <v>SE ACTUALIZO EL SISTEMA CENTRAL Y SE PROCEDIO  A PROCESAR LA FACTURA 25088</v>
-      </c>
-      <c r="F15" t="str">
-        <v>2023-02-02 08:51:00</v>
-      </c>
-      <c r="G15" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Mariana</v>
-      </c>
-      <c r="C16" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D16" t="str">
-        <v>LE SALE ERROR EN LA CREACION DEL ITEM 14350</v>
-      </c>
-      <c r="E16" t="str">
-        <v>SE LE HIZO EL SCRIPT DESDE LA BASE CON EL ITEM 14350</v>
-      </c>
-      <c r="F16" t="str">
-        <v>2023-02-03 14:00:00</v>
-      </c>
-      <c r="G16" t="str">
-        <v>Damaris Delgado</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>GLOBALRENT S.A.</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Estephania</v>
-      </c>
-      <c r="C17" t="str">
-        <v>SOPORTE</v>
-      </c>
-      <c r="D17" t="str">
-        <v xml:space="preserve">QUIERE QUE LE ABRA CAJA CON FECHA 8 PARA PODER ELIMINAR UN PAGO </v>
-      </c>
-      <c r="E17" t="str">
-        <v xml:space="preserve">SE ABRIO DESDE BASE EN ADMCAJACOB CON FECHA 08-02-23 Y SE VOLVIO A DEJAR LA CAJA CON LA FECHA QUE ESTABA </v>
-      </c>
-      <c r="F17" t="str">
-        <v>2023-02-10 15:26:31</v>
-      </c>
-      <c r="G17" t="str">
-        <v>Damaris Delgado</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>